--- a/biology/Médecine/Ligament_sterno-péricardique/Ligament_sterno-péricardique.xlsx
+++ b/biology/Médecine/Ligament_sterno-péricardique/Ligament_sterno-péricardique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ligament_sterno-p%C3%A9ricardique</t>
+          <t>Ligament_sterno-péricardique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les ligaments sterno-péricardiques sont deux ligaments impairs qui relient le péricarde fibreux à la face postérieure du sternum : le ligament sterno-péricardique supérieur (ou ligament sterno-costo-péricardique de Lannelongue et Le Dentu) et le ligament sterno-péricardique inférieur (ou ligament xipho-péricardique).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ligament_sterno-p%C3%A9ricardique</t>
+          <t>Ligament_sterno-péricardique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Ligament sterno-péricardique supérieur</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ligament sterno-péricardique supérieur s'attache sur la face antéro-supérieure du péricarde.
 Il se termine sur la face postérieure du manubrium sternal, les deux premiers cartilages costaux et la lame prétrachéale du fascia cervical.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ligament_sterno-p%C3%A9ricardique</t>
+          <t>Ligament_sterno-péricardique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Ligament sterno-péricardique inférieur</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ligament sterno-péricardique inférieur s'attache sur la face antéro-inférieure du péricarde.
 Il se termine sur l'extrémité inférieure de face postérieure du corps du sternum et la face postérieure du processus xiphoïde.
